--- a/documentation-generator/vocab_csv/entities.xlsx
+++ b/documentation-generator/vocab_csv/entities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="325">
   <si>
     <t>Term</t>
   </si>
@@ -784,6 +784,36 @@
     <t>Harshvardhan J. Pandit, Paul Ryan</t>
   </si>
   <si>
+    <t>CharityOrganisation</t>
+  </si>
+  <si>
+    <t>Charity Organisation</t>
+  </si>
+  <si>
+    <t>PrivateSectorBody</t>
+  </si>
+  <si>
+    <t>Private Sector Body</t>
+  </si>
+  <si>
+    <t>PublicSectorBody</t>
+  </si>
+  <si>
+    <t>Public Sector Body</t>
+  </si>
+  <si>
+    <t>SMEOrganisation</t>
+  </si>
+  <si>
+    <t>SME Organisation</t>
+  </si>
+  <si>
+    <t>StartupOrganisation</t>
+  </si>
+  <si>
+    <t>Startup Organisation</t>
+  </si>
+  <si>
     <t>hasDataSubject</t>
   </si>
   <si>
@@ -1064,7 +1094,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1211,6 +1241,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1321,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1574,6 +1609,9 @@
     <xf borderId="1" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1583,13 +1621,13 @@
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1601,7 +1639,7 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10486,6 +10524,206 @@
       <c r="AA11" s="23"/>
       <c r="AB11" s="23"/>
     </row>
+    <row r="12">
+      <c r="A12" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB35">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -10576,13 +10814,13 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D2" s="76" t="s">
         <v>17</v>
@@ -10629,13 +10867,13 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -10671,13 +10909,13 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>25</v>
@@ -10700,10 +10938,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -10812,28 +11050,28 @@
     </row>
     <row r="2">
       <c r="A2" s="56" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="23"/>
       <c r="I2" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>250</v>
       </c>
       <c r="K2" s="78">
         <v>43560.0</v>
@@ -10844,10 +11082,10 @@
       <c r="M2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="92" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="28"/>
@@ -10866,40 +11104,40 @@
     </row>
     <row r="3">
       <c r="A3" s="55" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="92" t="s">
-        <v>244</v>
+      <c r="I3" s="93" t="s">
+        <v>254</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="25">
         <v>44160.0</v>
       </c>
-      <c r="L3" s="93">
+      <c r="L3" s="94">
         <v>44734.0</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="93" t="s">
         <v>114</v>
       </c>
       <c r="P3" s="28"/>
@@ -10918,18 +11156,18 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="14"/>
@@ -10945,10 +11183,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -10966,25 +11204,25 @@
     </row>
     <row r="5">
       <c r="A5" s="55" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="94" t="s">
-        <v>253</v>
+      <c r="I5" s="95" t="s">
+        <v>263</v>
       </c>
       <c r="J5" s="55"/>
       <c r="K5" s="25">
@@ -10997,7 +11235,7 @@
       <c r="N5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="92" t="s">
+      <c r="O5" s="93" t="s">
         <v>37</v>
       </c>
       <c r="P5" s="28"/>
@@ -11016,18 +11254,18 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="14"/>
@@ -11043,10 +11281,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -11064,18 +11302,18 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="14"/>
@@ -11091,10 +11329,10 @@
         <v>19</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -11112,18 +11350,18 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="14"/>
@@ -11139,10 +11377,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -11160,18 +11398,18 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="14"/>
@@ -11187,10 +11425,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -11208,18 +11446,18 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="14"/>
@@ -11235,10 +11473,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -11256,18 +11494,18 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="14"/>
@@ -11283,10 +11521,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -11304,18 +11542,18 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="14"/>
@@ -11331,10 +11569,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -11352,25 +11590,25 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="13" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="15">
@@ -11381,10 +11619,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -11402,18 +11640,18 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="14"/>
@@ -11429,10 +11667,10 @@
         <v>19</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -11450,18 +11688,18 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="14"/>
@@ -11477,10 +11715,10 @@
         <v>19</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -11498,18 +11736,18 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="14"/>
@@ -11525,10 +11763,10 @@
         <v>19</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -11546,18 +11784,18 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="14"/>
@@ -11573,10 +11811,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -11594,18 +11832,18 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="14"/>
@@ -11621,10 +11859,10 @@
         <v>19</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -11642,18 +11880,18 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="14"/>
@@ -11669,10 +11907,10 @@
         <v>19</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
@@ -11690,25 +11928,25 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="15">
@@ -11719,10 +11957,10 @@
         <v>19</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
@@ -11740,18 +11978,18 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="14"/>
@@ -11767,10 +12005,10 @@
         <v>19</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
@@ -11788,18 +12026,18 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="14"/>
@@ -11815,10 +12053,10 @@
         <v>19</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -11836,18 +12074,18 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E23" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="14"/>
@@ -11863,10 +12101,10 @@
         <v>19</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -11884,18 +12122,18 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E24" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="14"/>
@@ -11911,10 +12149,10 @@
         <v>19</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
@@ -11932,18 +12170,18 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="14"/>
@@ -11959,10 +12197,10 @@
         <v>19</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -11980,18 +12218,18 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="14"/>
@@ -12007,10 +12245,10 @@
         <v>19</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -12028,18 +12266,18 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="89" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="14"/>
@@ -12055,10 +12293,10 @@
         <v>19</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
